--- a/3к2с/БД/Лаб2/Лаб2.xlsx
+++ b/3к2с/БД/Лаб2/Лаб2.xlsx
@@ -4,13 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Адресно-телефонный справочник" sheetId="1" r:id="rId1"/>
     <sheet name="Служебная информация" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
+    <sheet name="Личные сведения" sheetId="3" r:id="rId3"/>
+    <sheet name="Выплаты" sheetId="4" r:id="rId4"/>
+    <sheet name="Консолидация" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Выплаты!$A$6:$L$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">Выплаты!#REF!</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Выплаты!$E$1:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="90">
   <si>
     <t>Адресно-телефонный справочник</t>
   </si>
@@ -161,15 +168,6 @@
     <t>Рабочий телефон</t>
   </si>
   <si>
-    <t>студент</t>
-  </si>
-  <si>
-    <t>инженер-оператор</t>
-  </si>
-  <si>
-    <t>рядовой</t>
-  </si>
-  <si>
     <t>ПГУ</t>
   </si>
   <si>
@@ -209,9 +207,6 @@
     <t>ул.П.Бровки, 6</t>
   </si>
   <si>
-    <t>безработный</t>
-  </si>
-  <si>
     <t>ул.Юбилейная, 21</t>
   </si>
   <si>
@@ -219,14 +214,99 @@
   </si>
   <si>
     <t>Al. Racławickie 14</t>
+  </si>
+  <si>
+    <t>аспирант</t>
+  </si>
+  <si>
+    <t>преподаватель</t>
+  </si>
+  <si>
+    <t>лабарант</t>
+  </si>
+  <si>
+    <t>магистрант</t>
+  </si>
+  <si>
+    <t>ул.Блохина, 30</t>
+  </si>
+  <si>
+    <t>Личные сведения</t>
+  </si>
+  <si>
+    <t>Год рождения</t>
+  </si>
+  <si>
+    <t>Стаж работы</t>
+  </si>
+  <si>
+    <t>Ученая степень</t>
+  </si>
+  <si>
+    <t>Ученое звание</t>
+  </si>
+  <si>
+    <t>к.т.н</t>
+  </si>
+  <si>
+    <t>доцент</t>
+  </si>
+  <si>
+    <t>д.т.н</t>
+  </si>
+  <si>
+    <t>профессор</t>
+  </si>
+  <si>
+    <t>доктор</t>
+  </si>
+  <si>
+    <t>Оклад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надбавка за стаж </t>
+  </si>
+  <si>
+    <t>Премия (50%)</t>
+  </si>
+  <si>
+    <t>Подоходный налог (11%)</t>
+  </si>
+  <si>
+    <t>Выплаты в фонды</t>
+  </si>
+  <si>
+    <t>Выплачено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должность </t>
+  </si>
+  <si>
+    <t>Табилца 1. Данные о выпуске продукции вида 1.</t>
+  </si>
+  <si>
+    <t>№ предприятия</t>
+  </si>
+  <si>
+    <t>Продукция, тыс.шт.</t>
+  </si>
+  <si>
+    <t>Потребления сырья, тыс.т.</t>
+  </si>
+  <si>
+    <t>Объем электропотребления, кВт ч</t>
+  </si>
+  <si>
+    <t>Табилца 1. Данные о выпуске продукции вида 2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="00\-00\-00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="00\-00\-00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$Br-423]"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -253,12 +333,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -288,19 +374,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -584,7 +677,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,368 +692,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>33</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>111111</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>33</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>111111</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>222222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>222222</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>322332</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>56</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>654532</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>44</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>17</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>764523</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>9</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>8</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>653487</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>65</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>754321</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>66</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>743423</v>
       </c>
     </row>
@@ -978,7 +1071,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,296 +1086,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="5">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2">
+        <v>322332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2">
+        <v>654532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2">
+        <v>764523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2">
+        <v>653487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="4">
-        <v>111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H12" s="2">
+        <v>754321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="4">
-        <v>111111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="4">
-        <v>222222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="7">
-        <v>222222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="4">
-        <v>322332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="4">
-        <v>654532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4">
-        <v>764523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="4">
-        <v>653487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="4">
-        <v>754321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>743423</v>
       </c>
     </row>
@@ -1296,12 +1393,1373 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
+        <v>35580</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>34787</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <v>35636</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6">
+        <v>397642</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>34902</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <v>32062</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6">
+        <v>28482</v>
+      </c>
+      <c r="F10" s="1">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6">
+        <v>36237</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6">
+        <v>35567</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6">
+        <v>35390</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1300</v>
+      </c>
+      <c r="H7" s="9">
+        <f>IF(F7&gt;15,G7*0.15,IF(F7&gt;10,G7*0.1,IF(F7&gt;5,G7*0.05,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <f>G7*0.5</f>
+        <v>650</v>
+      </c>
+      <c r="J7" s="9">
+        <f>(G7+H7+I7)*0.11</f>
+        <v>214.5</v>
+      </c>
+      <c r="K7" s="9">
+        <f>(G7+H7-I7)*0.02</f>
+        <v>13</v>
+      </c>
+      <c r="L7" s="9">
+        <f>G7+H7+I7-J7-K7</f>
+        <v>1722.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1750</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" ref="H8:H16" si="0">IF(F8&gt;15,G8*0.15,IF(F8&gt;10,G8*0.1,IF(F8&gt;5,G8*0.05,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" ref="I8:I16" si="1">G8*0.5</f>
+        <v>875</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" ref="J8:J16" si="2">(G8+H8+I8)*0.11</f>
+        <v>288.75</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" ref="K8:K16" si="3">(G8+H8-I8)*0.02</f>
+        <v>17.5</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" ref="L8:L16" si="4">G8+H8+I8-J8-K8</f>
+        <v>2318.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1250</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>206.25</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="4"/>
+        <v>1656.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2200</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>387.2</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="3"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="4"/>
+        <v>3106.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1900</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>950</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>313.5</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="4"/>
+        <v>2517.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2435</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>243.5</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="1"/>
+        <v>1217.5</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>428.56</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="3"/>
+        <v>29.22</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="4"/>
+        <v>3438.2200000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1">
+        <v>34</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2900</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>1450</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>526.35</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="4"/>
+        <v>4220.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="4"/>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1300</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="2"/>
+        <v>214.5</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="4"/>
+        <v>1722.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1450</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>725</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="2"/>
+        <v>239.25</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="4"/>
+        <v>1921.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:L16"/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>86.1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>98.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>99.1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>111.9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>122.6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>166.9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>171.6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>173.8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>177.5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>177.8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>110.6</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="C32">
+        <v>12.2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>144.5</v>
+      </c>
+      <c r="C33">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D33">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>158.60000000000002</v>
+      </c>
+      <c r="C34">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="D34">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>172.7</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>218.2</v>
+      </c>
+      <c r="C36">
+        <v>16.8</v>
+      </c>
+      <c r="D36">
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>226.6</v>
+      </c>
+      <c r="C37">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D37">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>240.3</v>
+      </c>
+      <c r="C38">
+        <v>15.5</v>
+      </c>
+      <c r="D38">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>245.8</v>
+      </c>
+      <c r="C39">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D39">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>248.60000000000002</v>
+      </c>
+      <c r="C40">
+        <v>18.3</v>
+      </c>
+      <c r="D40">
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate leftLabels="1" topLabels="1">
+    <dataRefs count="2">
+      <dataRef ref="A3:D13" sheet="Консолидация" r:id="rId1"/>
+      <dataRef ref="A16:D26" sheet="Консолидация" r:id="rId2"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>